--- a/threeyears_pm10_monthlydata.xlsx
+++ b/threeyears_pm10_monthlydata.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,31 +9,32 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>total</t>
+    <t>Date</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>total_pm10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -41,8 +42,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -86,20 +94,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -173,6 +186,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -207,6 +221,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -382,22 +397,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43131</v>
       </c>
@@ -405,71 +425,71 @@
         <v>107424.5558666881</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43159</v>
       </c>
       <c r="B3">
-        <v>121063.3433111758</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>121063.34331117581</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43190</v>
       </c>
       <c r="B4">
-        <v>128303.8943726114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>128303.89437261139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43220</v>
       </c>
       <c r="B5">
-        <v>131870.6960892646</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>131870.69608926459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43251</v>
       </c>
       <c r="B6">
-        <v>93726.6880952229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>93726.688095222897</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43281</v>
       </c>
       <c r="B7">
-        <v>76635.30814778522</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>76635.308147785225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43312</v>
       </c>
       <c r="B8">
-        <v>72565.85192457557</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>72565.851924575574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43343</v>
       </c>
       <c r="B9">
-        <v>67003.82153549012</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>67003.821535490119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43373</v>
       </c>
       <c r="B10">
-        <v>87247.45430759866</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>87247.454307598658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43404</v>
       </c>
@@ -477,7 +497,7 @@
         <v>116554.021990514</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43434</v>
       </c>
@@ -485,7 +505,7 @@
         <v>103438.6351958537</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43465</v>
       </c>
@@ -493,23 +513,23 @@
         <v>104174.4570549343</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43496</v>
       </c>
       <c r="B14">
-        <v>116576.951972741</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>116576.95197274099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43524</v>
       </c>
       <c r="B15">
-        <v>92088.22603812479</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>92088.226038124791</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43555</v>
       </c>
@@ -517,119 +537,119 @@
         <v>105188.3473518034</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43585</v>
       </c>
       <c r="B17">
-        <v>88884.13098692719</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>88884.130986927194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43616</v>
       </c>
       <c r="B18">
-        <v>83361.43816813856</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>83361.438168138557</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43646</v>
       </c>
       <c r="B19">
-        <v>62639.2399994379</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>62639.239999437901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43677</v>
       </c>
       <c r="B20">
-        <v>67206.43732677911</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>67206.437326779109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43708</v>
       </c>
       <c r="B21">
-        <v>55286.2539512868</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>55286.253951286802</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43738</v>
       </c>
       <c r="B22">
-        <v>71507.2390933789</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>71507.239093378899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43769</v>
       </c>
       <c r="B23">
-        <v>101711.9172255378</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>101711.91722553781</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43799</v>
       </c>
       <c r="B24">
-        <v>99254.40383866543</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>99254.403838665428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43830</v>
       </c>
       <c r="B25">
-        <v>82714.98676854586</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>82714.986768545859</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43861</v>
       </c>
       <c r="B26">
-        <v>88644.12668657565</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>88644.126686575648</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43890</v>
       </c>
       <c r="B27">
-        <v>86735.18880902768</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>86735.188809027677</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43921</v>
       </c>
       <c r="B28">
-        <v>92011.21073870509</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>92011.210738705093</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43951</v>
       </c>
       <c r="B29">
-        <v>84628.2321100897</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>84628.232110089695</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43982</v>
       </c>
       <c r="B30">
-        <v>56290.42029852171</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>56290.420298521713</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44012</v>
       </c>
@@ -637,55 +657,57 @@
         <v>41410.41164931246</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44043</v>
       </c>
       <c r="B32">
-        <v>42653.13584049132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>42653.135840491319</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44074</v>
       </c>
       <c r="B33">
-        <v>48172.92331799893</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>48172.923317998931</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44104</v>
       </c>
       <c r="B34">
-        <v>76609.04779731306</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>76609.047797313062</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44135</v>
       </c>
       <c r="B35">
-        <v>84256.09150524638</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>84256.091505246382</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44165</v>
       </c>
       <c r="B36">
-        <v>83230.67039336299</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>83230.670393362991</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44196</v>
       </c>
       <c r="B37">
-        <v>72437.958818417</v>
+        <v>72437.958818416999</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>